--- a/daftar_berita/hasil_kompas.xlsx
+++ b/daftar_berita/hasil_kompas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,12 +463,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Labkesda Jabar Ungkap Bakteri Penyebab Keracunan MBG, dari Salmonella hingga E-ColiPROV26/09/2025</t>
+          <t>Setop Keracunan MBG, Pemerintah Evaluasi Juru Masak hingga Alur Limbah DapurNEWS28/09/2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -478,7 +478,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.kompas.com/jawa-barat/read/2025/09/26/150000988/labkesda-jabar-ungkap-bakteri-penyebab-keracunan-mbg-dari-salmonella</t>
+          <t>https://nasional.kompas.com/read/2025/09/28/16291761/setop-keracunan-mbg-pemerintah-evaluasi-juru-masak-hingga-alur-limbah-dapur</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -490,12 +490,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Cegah Keracunan MBG Terulang, SPPG Sumedang Ditertibkan dan DitambahREGIONAL26/09/2025</t>
+          <t>Program MBG di Batu Dihentikan Sementara, Makanan Diduga Tak Layak KonsumsiREGIONAL28/09/2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://bandung.kompas.com/read/2025/09/26/145324278/cegah-keracunan-mbg-terulang-sppg-sumedang-ditertibkan-dan-ditambah</t>
+          <t>https://regional.kompas.com/read/2025/09/28/162050878/program-mbg-di-batu-dihentikan-sementara-makanan-diduga-tak-layak-konsumsi</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -517,12 +517,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Cucun Ahmad Semprot Kepala SPPG Usai 411 Siswa Keracunan MBG: Sudah Langgar SOPPROV26/09/2025</t>
+          <t>Pemerintah Wajibkan Dapur MBG Punya Sertifikat Layak Higiene SanitasiNEWS28/09/2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -532,7 +532,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.kompas.com/jawa-barat/read/2025/09/26/144500288/cucun-ahmad-semprot-kepala-sppg-usai-411-siswa-keracunan-mbg--sudah</t>
+          <t>https://nasional.kompas.com/read/2025/09/28/16194631/pemerintah-wajibkan-dapur-mbg-punya-sertifikat-layak-higiene-sanitasi</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -544,12 +544,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>13 Siswa Mual Muntah, MBG di SDN 178 Palembang Dihentikan SementaraREGIONAL26/09/2025</t>
+          <t>Mendikdasmen: Masyarakat dan Sekolah Berharap MBG Tetap DilanjutkanEDUKASI28/09/2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://regional.kompas.com/read/2025/09/26/144105578/13-siswa-mual-muntah-mbg-di-sdn-178-palembang-dihentikan-sementara</t>
+          <t>https://www.kompas.com/edu/read/2025/09/28/161319471/mendikdasmen-masyarakat-dan-sekolah-berharap-mbg-tetap-dilanjutkan</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -571,12 +571,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Keracunan Massal Terus Terjadi, Program MBG Dinilai Minim Pengawasan dan KajianREGIONAL26/09/2025</t>
+          <t>Respons Keracunan MBG, Prabowo Perintahkan BGN Rekrut Koki TerlatihNEWS28/09/2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://regional.kompas.com/read/2025/09/26/141802978/keracunan-massal-terus-terjadi-program-mbg-dinilai-minim-pengawasan-dan</t>
+          <t>https://nasional.kompas.com/read/2025/09/28/16012301/respons-keracunan-mbg-prabowo-perintahkan-bgn-rekrut-koki-terlatih</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -598,12 +598,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Siswa Temukan Ulat pada Menu MBG, Dandim Sikka: Perlu DiselidikiREGIONAL26/09/2025</t>
+          <t>Tangani Keracunan MBG, Pemerintah Tutup Sementara SPPG BermasalahNEWS28/09/2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -613,7 +613,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://regional.kompas.com/read/2025/09/26/140803178/siswa-temukan-ulat-pada-menu-mbg-dandim-sikka-perlu-diselidiki</t>
+          <t>https://nasional.kompas.com/read/2025/09/28/15550351/tangani-keracunan-mbg-pemerintah-tutup-sementara-sppg-bermasalah</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -625,12 +625,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>105 Siswa di Sumedang Keracunan MBG, Sejumlah Korban Dirawat di Selasar RSPROV26/09/2025</t>
+          <t>Kepala BGN Lapor ke Prabowo: Keracunan MBG karena SDM Butuh Jam TerbangNEWS28/09/2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -640,7 +640,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.kompas.com/jawa-barat/read/2025/09/26/140000088/105-siswa-di-sumedang-keracunan-mbg-sejumlah-korban-dirawat-di</t>
+          <t>https://nasional.kompas.com/read/2025/09/28/15185101/kepala-bgn-lapor-ke-prabowo-keracunan-mbg-karena-sdm-butuh-jam-terbang</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -652,12 +652,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>103 Siswa Keracunan MBG, Bupati Sumedang Kumpulkan Seluruh Kepala Dapur SPPGREGIONAL26/09/2025</t>
+          <t>Butuh Pengaduan MBG? Catat Nomor Hotline Resmi Badan Gizi NasionalPROV28/09/2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://bandung.kompas.com/read/2025/09/26/135118378/103-siswa-keracunan-mbg-bupati-sumedang-kumpulkan-seluruh-kepala-dapur-sppg</t>
+          <t>https://www.kompas.com/sulawesi-selatan/read/2025/09/28/140000788/butuh-pengaduan-mbg-catat-nomor-hotline-resmi-badan-gizi</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -679,12 +679,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Marak Keracunan MBG Dinilai karena Eksekusi "Asal Ada", Tak Perhatikan Sasaran dan KualitasREGIONAL26/09/2025</t>
+          <t>Mendikdasmen Abdul Mu’ti Sebut Sebagian Besar Masyarakat-Sekolah Berharap MBG Tetap DilaksanakanREGIONAL28/09/2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -694,7 +694,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://regional.kompas.com/read/2025/09/26/134537578/marak-keracunan-mbg-dinilai-karena-eksekusi-asal-ada-tak-perhatikan-sasaran</t>
+          <t>https://regional.kompas.com/read/2025/09/28/134007878/mendikdasmen-abdul-muti-sebut-sebagian-besar-masyarakat-sekolah-berharap</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -706,12 +706,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>IESR Sebut Perlu Stimulus Pembiayaan "Waste to Energy" Atasi Darurat SampahLESTARI26/09/2025</t>
+          <t>Bupati Jeje Cabut KLB Keracunan MBG Bandung Barat Usai 1.315 Orang Jadi KorbanPROV28/09/2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -721,24 +721,24 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://lestari.kompas.com/read/2025/09/26/134500586/iesr-sebut-perlu-stimulus-pembiayaan-waste-to-energy-atasi-darurat-sampah</t>
+          <t>https://www.kompas.com/jawa-barat/read/2025/09/28/133000488/bupati-jeje-cabut-klb-keracunan-mbg-bandung-barat-usai-1.315-orang</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>stimulus</t>
+          <t>mbg</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Kasus Keracunan MBG Makin Marak, Badan Gizi Nasional Akan Lakukan IniTREN26/09/2025</t>
+          <t>Gubernur Kalbar Tetap Dukung Program MBG, tapi Tuntut Evaluasi Kualitas LayananREGIONAL28/09/2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -748,7 +748,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.kompas.com/tren/read/2025/09/26/134500765/kasus-keracunan-mbg-makin-marak-badan-gizi-nasional-akan-lakukan-ini</t>
+          <t>https://regional.kompas.com/read/2025/09/28/132350678/gubernur-kalbar-tetap-dukung-program-mbg-tapi-tuntut-evaluasi-kualitas</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -760,12 +760,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Pilih Tolak MBG, Ketua Yayasan di Jombang: Prioritaskan Sekolah yang Membutuhkan SajaREGIONAL26/09/2025</t>
+          <t>Nomor Hotline MBG Berapa? Ini Daftar Kontak Resmi Badan Gizi NasionalPROV28/09/2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -775,7 +775,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://surabaya.kompas.com/read/2025/09/26/134306278/pilih-tolak-mbg-ketua-yayasan-di-jombang-prioritaskan-sekolah-yang</t>
+          <t>https://www.kompas.com/jawa-timur/read/2025/09/28/130000988/nomor-hotline-mbg-berapa-ini-daftar-kontak-resmi-badan-gizi-nasional</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -787,12 +787,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ratusan Siswa Keracunan, MBG Disetop Sementara di Sejumlah Daerah di LampungREGIONAL26/09/2025</t>
+          <t>SD Muhammadiyah 1 Ketelan Solo Tolak MBG, Begini Tanggapan Wali Kota dan DPRDPROV28/09/2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -802,7 +802,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://regional.kompas.com/read/2025/09/26/133410778/ratusan-siswa-keracunan-mbg-disetop-sementara-di-sejumlah-daerah-di-lampung</t>
+          <t>https://www.kompas.com/jawa-tengah/read/2025/09/28/120419588/sd-muhammadiyah-1-ketelan-solo-tolak-mbg-begini-tanggapan-wali-kota</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -814,12 +814,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Bakteri Salmonella hingga Bacillus Cereus Dominasi Kasus Keracunan MBG di JabarREGIONAL26/09/2025</t>
+          <t>Kala Purbaya Tantang Rocky Gerung Minta Maaf: Saya Bisa Balikin Ekonomi dari 5 ke 6 PersenMONEY28/09/2025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -829,24 +829,24 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://bandung.kompas.com/read/2025/09/26/133308278/bakteri-salmonella-hingga-bacillus-cereus-dominasi-kasus-keracunan-mbg-di</t>
+          <t>https://money.kompas.com/read/2025/09/28/120000626/kala-purbaya-tantang-rocky-gerung-minta-maaf--saya-bisa-balikin-ekonomi-dari-5</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>mbg</t>
+          <t>purbaya</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sebelum Keracunan, Ini Menu MBG yang Dikonsumsi Siswa SD di BanyumasREGIONAL26/09/2025</t>
+          <t>17 Tanya Jawab Seputar MBG 2025, termasuk soal Risiko Pungli dan KeracunanTREN28/09/2025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://regional.kompas.com/read/2025/09/26/131019678/sebelum-keracunan-ini-menu-mbg-yang-dikonsumsi-siswa-sd-di-banyumas</t>
+          <t>https://www.kompas.com/tren/read/2025/09/28/113000465/17-tanya-jawab-seputar-mbg-2025-termasuk-soal-risiko-pungli-dan-keracunan</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -868,12 +868,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>YLKI Desak Pemerintah Benahi Program MBG akibat Ribuan Anak Keracunan, Ini Poin-poinnyaTREN26/09/2025</t>
+          <t>Kasus Keracunan MBG, Pakar UGM Sebut Harus Ada Payung HukumEDUKASI28/09/2025</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -883,10 +883,37 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.kompas.com/tren/read/2025/09/26/130000165/ylki-desak-pemerintah-benahi-program-mbg-akibat-ribuan-anak-keracunan-ini</t>
+          <t>https://www.kompas.com/edu/read/2025/09/28/111500471/kasus-keracunan-mbg-pakar-ugm-sebut-harus-ada-payung-hukum</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
+        <is>
+          <t>mbg</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>SD Muhammadiyah 1 Ketelan Solo Tolak MBG, Penolakan Didukung Penuh Wali MuridPROV28/09/2025</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-09-28</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://www.kompas.com/jawa-tengah/read/2025/09/28/110951288/sd-muhammadiyah-1-ketelan-solo-tolak-mbg-penolakan-didukung-penuh</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>mbg</t>
         </is>

--- a/daftar_berita/hasil_kompas.xlsx
+++ b/daftar_berita/hasil_kompas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,12 +463,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Setop Keracunan MBG, Pemerintah Evaluasi Juru Masak hingga Alur Limbah DapurNEWS28/09/2025</t>
+          <t>Belum Ada Laporan Kasus Keracunan MBG, Pemkot Bekasi Tetap Evaluasi SPPGNEWS29/09/2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -478,7 +478,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://nasional.kompas.com/read/2025/09/28/16291761/setop-keracunan-mbg-pemerintah-evaluasi-juru-masak-hingga-alur-limbah-dapur</t>
+          <t>https://megapolitan.kompas.com/read/2025/09/29/09275851/belum-ada-laporan-kasus-keracunan-mbg-pemkot-bekasi-tetap-evaluasi-sppg</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -490,12 +490,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Program MBG di Batu Dihentikan Sementara, Makanan Diduga Tak Layak KonsumsiREGIONAL28/09/2025</t>
+          <t>Usai KLB MBG, Pemerintah Siapkan Ahli Gizi hingga Perbaiki Tata KelolaNEWS29/09/2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://regional.kompas.com/read/2025/09/28/162050878/program-mbg-di-batu-dihentikan-sementara-makanan-diduga-tak-layak-konsumsi</t>
+          <t>https://nasional.kompas.com/read/2025/09/29/08323071/usai-klb-mbg-pemerintah-siapkan-ahli-gizi-hingga-perbaiki-tata-kelola</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -517,12 +517,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pemerintah Wajibkan Dapur MBG Punya Sertifikat Layak Higiene SanitasiNEWS28/09/2025</t>
+          <t>Disdik Kalteng Ajak Warga Awasi Program MBG lewat Aplikasi, Bagaimana Caranya?REGIONAL29/09/2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -532,7 +532,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://nasional.kompas.com/read/2025/09/28/16194631/pemerintah-wajibkan-dapur-mbg-punya-sertifikat-layak-higiene-sanitasi</t>
+          <t>https://regional.kompas.com/read/2025/09/29/083105778/disdik-kalteng-ajak-warga-awasi-program-mbg-lewat-aplikasi-bagaimana</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -544,12 +544,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Mendikdasmen: Masyarakat dan Sekolah Berharap MBG Tetap DilanjutkanEDUKASI28/09/2025</t>
+          <t>Kartu Pers Istana Jurnalis CNN Dicabut Usai Tanya soal MBG, Mensesneg Tegaskan Prabowo Tak TerlibatPROV29/09/2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.kompas.com/edu/read/2025/09/28/161319471/mendikdasmen-masyarakat-dan-sekolah-berharap-mbg-tetap-dilanjutkan</t>
+          <t>https://www.kompas.com/kalimantan-timur/read/2025/09/29/080000388/kartu-pers-istana-jurnalis-cnn-dicabut-usai-tanya-soal-mbg</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -571,12 +571,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Respons Keracunan MBG, Prabowo Perintahkan BGN Rekrut Koki TerlatihNEWS28/09/2025</t>
+          <t>Soal Program MBG, Zulhas: SPPG yang Bermasalah DitutupPROV29/09/2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://nasional.kompas.com/read/2025/09/28/16012301/respons-keracunan-mbg-prabowo-perintahkan-bgn-rekrut-koki-terlatih</t>
+          <t>https://www.kompas.com/jawa-barat/read/2025/09/29/074900188/soal-program-mbg-zulhas--sppg-yang-bermasalah-ditutup</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -598,12 +598,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Tangani Keracunan MBG, Pemerintah Tutup Sementara SPPG BermasalahNEWS28/09/2025</t>
+          <t>Duduk Perkara Kartu Pers Istana Jurnalis CNN Dicabut karena Tanya Keracunan MBG ke PrabowoPROV29/09/2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -613,7 +613,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://nasional.kompas.com/read/2025/09/28/15550351/tangani-keracunan-mbg-pemerintah-tutup-sementara-sppg-bermasalah</t>
+          <t>https://www.kompas.com/jawa-tengah/read/2025/09/29/072157488/duduk-perkara-kartu-pers-istana-jurnalis-cnn-dicabut-karena-tanya</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -625,12 +625,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Kepala BGN Lapor ke Prabowo: Keracunan MBG karena SDM Butuh Jam TerbangNEWS28/09/2025</t>
+          <t>Wali Kota Pastikan Belum Ada Temuan Siswa Keracunan MBG di Banda AcehREGIONAL29/09/2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -640,7 +640,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://nasional.kompas.com/read/2025/09/28/15185101/kepala-bgn-lapor-ke-prabowo-keracunan-mbg-karena-sdm-butuh-jam-terbang</t>
+          <t>https://regional.kompas.com/read/2025/09/29/064636878/wali-kota-pastikan-belum-ada-temuan-siswa-keracunan-mbg-di-banda-aceh</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -652,12 +652,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Butuh Pengaduan MBG? Catat Nomor Hotline Resmi Badan Gizi NasionalPROV28/09/2025</t>
+          <t>BGN Buka Layanan Pengaduan MBG, Catat Nomor dan Cara Lapornya !MONEY29/09/2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.kompas.com/sulawesi-selatan/read/2025/09/28/140000788/butuh-pengaduan-mbg-catat-nomor-hotline-resmi-badan-gizi</t>
+          <t>https://money.kompas.com/read/2025/09/29/060125326/bgn-buka-layanan-pengaduan-mbg-catat-nomor-dan-cara-lapornya</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -679,12 +679,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Mendikdasmen Abdul Mu’ti Sebut Sebagian Besar Masyarakat-Sekolah Berharap MBG Tetap DilaksanakanREGIONAL28/09/2025</t>
+          <t>Keracunan MBG, Pers, dan Hari Hak untuk TahuNEWS29/09/2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -694,7 +694,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://regional.kompas.com/read/2025/09/28/134007878/mendikdasmen-abdul-muti-sebut-sebagian-besar-masyarakat-sekolah-berharap</t>
+          <t>https://nasional.kompas.com/read/2025/09/29/06000011/keracunan-mbg-pers-dan-hari-hak-untuk-tahu</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -706,12 +706,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Bupati Jeje Cabut KLB Keracunan MBG Bandung Barat Usai 1.315 Orang Jadi KorbanPROV28/09/2025</t>
+          <t>Kronologi Pencabutan ID Pers Istana Milik Wartawan CNN Pasca Lempar Pertanyaan Soal MBG ke Presiden PrabowoPROV29/09/2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -721,7 +721,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.kompas.com/jawa-barat/read/2025/09/28/133000488/bupati-jeje-cabut-klb-keracunan-mbg-bandung-barat-usai-1.315-orang</t>
+          <t>https://www.kompas.com/jawa-tengah/read/2025/09/29/053000688/kronologi-pencabutan-id-pers-istana-milik-wartawan-cnn-pasca-lempar</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -733,12 +733,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Gubernur Kalbar Tetap Dukung Program MBG, tapi Tuntut Evaluasi Kualitas LayananREGIONAL28/09/2025</t>
+          <t>Merasionalkan MBG, Membenahi BGNNEWS29/09/2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -748,7 +748,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://regional.kompas.com/read/2025/09/28/132350678/gubernur-kalbar-tetap-dukung-program-mbg-tapi-tuntut-evaluasi-kualitas</t>
+          <t>https://nasional.kompas.com/read/2025/09/29/05223631/merasionalkan-mbg-membenahi-bgn</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -760,12 +760,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Nomor Hotline MBG Berapa? Ini Daftar Kontak Resmi Badan Gizi NasionalPROV28/09/2025</t>
+          <t>Zulhas soal Keracunan Massal MBG: Ini Bukan Sekadar AngkaMONEY29/09/2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -775,145 +775,10 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.kompas.com/jawa-timur/read/2025/09/28/130000988/nomor-hotline-mbg-berapa-ini-daftar-kontak-resmi-badan-gizi-nasional</t>
+          <t>https://money.kompas.com/read/2025/09/29/004600026/zulhas-soal-keracunan-massal-mbg--ini-bukan-sekadar-angka</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
-        <is>
-          <t>mbg</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>SD Muhammadiyah 1 Ketelan Solo Tolak MBG, Begini Tanggapan Wali Kota dan DPRDPROV28/09/2025</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2025-09-28</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>https://www.kompas.com/jawa-tengah/read/2025/09/28/120419588/sd-muhammadiyah-1-ketelan-solo-tolak-mbg-begini-tanggapan-wali-kota</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>mbg</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Kala Purbaya Tantang Rocky Gerung Minta Maaf: Saya Bisa Balikin Ekonomi dari 5 ke 6 PersenMONEY28/09/2025</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2025-09-28</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>https://money.kompas.com/read/2025/09/28/120000626/kala-purbaya-tantang-rocky-gerung-minta-maaf--saya-bisa-balikin-ekonomi-dari-5</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>purbaya</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>17 Tanya Jawab Seputar MBG 2025, termasuk soal Risiko Pungli dan KeracunanTREN28/09/2025</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2025-09-28</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>https://www.kompas.com/tren/read/2025/09/28/113000465/17-tanya-jawab-seputar-mbg-2025-termasuk-soal-risiko-pungli-dan-keracunan</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>mbg</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Kasus Keracunan MBG, Pakar UGM Sebut Harus Ada Payung HukumEDUKASI28/09/2025</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2025-09-28</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>https://www.kompas.com/edu/read/2025/09/28/111500471/kasus-keracunan-mbg-pakar-ugm-sebut-harus-ada-payung-hukum</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>mbg</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>SD Muhammadiyah 1 Ketelan Solo Tolak MBG, Penolakan Didukung Penuh Wali MuridPROV28/09/2025</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2025-09-28</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>https://www.kompas.com/jawa-tengah/read/2025/09/28/110951288/sd-muhammadiyah-1-ketelan-solo-tolak-mbg-penolakan-didukung-penuh</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
         <is>
           <t>mbg</t>
         </is>

--- a/daftar_berita/hasil_kompas.xlsx
+++ b/daftar_berita/hasil_kompas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Belum Ada Laporan Kasus Keracunan MBG, Pemkot Bekasi Tetap Evaluasi SPPGNEWS29/09/2025</t>
+          <t>Istana Jamin Prabowo Junjung Kebebasan Pers, Usai Viral ID Wartawan Istana CNN DicabutNEWS29/09/2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -478,19 +478,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://megapolitan.kompas.com/read/2025/09/29/09275851/belum-ada-laporan-kasus-keracunan-mbg-pemkot-bekasi-tetap-evaluasi-sppg</t>
+          <t>https://nasional.kompas.com/read/2025/09/29/13440911/istana-jamin-prabowo-junjung-kebebasan-pers-usai-viral-id-wartawan-istana</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>mbg</t>
+          <t>prabowo</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Usai KLB MBG, Pemerintah Siapkan Ahli Gizi hingga Perbaiki Tata KelolaNEWS29/09/2025</t>
+          <t>MBG di SMAN 1 Kedungwaru Tulungagung DihentikanREGIONAL29/09/2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://nasional.kompas.com/read/2025/09/29/08323071/usai-klb-mbg-pemerintah-siapkan-ahli-gizi-hingga-perbaiki-tata-kelola</t>
+          <t>https://surabaya.kompas.com/read/2025/09/29/134342978/mbg-di-sman-1-kedungwaru-tulungagung-dihentikan</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -517,7 +517,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Disdik Kalteng Ajak Warga Awasi Program MBG lewat Aplikasi, Bagaimana Caranya?REGIONAL29/09/2025</t>
+          <t>Prabowo Sebut MBG Ciptakan 1,5 Juta Lapangan Kerja Baru di Januari 2026NEWS29/09/2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -532,19 +532,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://regional.kompas.com/read/2025/09/29/083105778/disdik-kalteng-ajak-warga-awasi-program-mbg-lewat-aplikasi-bagaimana</t>
+          <t>https://nasional.kompas.com/read/2025/09/29/13383201/prabowo-sebut-mbg-ciptakan-15-juta-lapangan-kerja-baru-di-januari-2026</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>mbg</t>
+          <t>mbg, prabowo</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Kartu Pers Istana Jurnalis CNN Dicabut Usai Tanya soal MBG, Mensesneg Tegaskan Prabowo Tak TerlibatPROV29/09/2025</t>
+          <t>Prabowo: Elite yang Dianggap Cemerlang Ternyata Kalah Pintar dari KoruptorNEWS29/09/2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -559,19 +559,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.kompas.com/kalimantan-timur/read/2025/09/29/080000388/kartu-pers-istana-jurnalis-cnn-dicabut-usai-tanya-soal-mbg</t>
+          <t>https://nasional.kompas.com/read/2025/09/29/13285631/prabowo-elite-yang-dianggap-cemerlang-ternyata-kalah-pintar-dari-koruptor</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>mbg</t>
+          <t>prabowo</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Soal Program MBG, Zulhas: SPPG yang Bermasalah DitutupPROV29/09/2025</t>
+          <t>Banyak Keracunan, Prabowo Tak Paksakan Target 82 Juta Penerima MBGNEWS29/09/2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -586,19 +586,19 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.kompas.com/jawa-barat/read/2025/09/29/074900188/soal-program-mbg-zulhas--sppg-yang-bermasalah-ditutup</t>
+          <t>https://nasional.kompas.com/read/2025/09/29/13243171/banyak-keracunan-prabowo-tak-paksakan-target-82-juta-penerima-mbg</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>mbg</t>
+          <t>prabowo</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Duduk Perkara Kartu Pers Istana Jurnalis CNN Dicabut karena Tanya Keracunan MBG ke PrabowoPROV29/09/2025</t>
+          <t>MBG Akan Kuat bila Dikawal Pers yang BebasNEWS29/09/2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -613,7 +613,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.kompas.com/jawa-tengah/read/2025/09/29/072157488/duduk-perkara-kartu-pers-istana-jurnalis-cnn-dicabut-karena-tanya</t>
+          <t>https://nasional.kompas.com/read/2025/09/29/13053071/mbg-akan-kuat-bila-dikawal-pers-yang-bebas</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -625,7 +625,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Wali Kota Pastikan Belum Ada Temuan Siswa Keracunan MBG di Banda AcehREGIONAL29/09/2025</t>
+          <t>Anggota Komisi IX: Kasus Keracunan MBG Harus Menjadi Bahan Evaluasi KomprehensifNEWS29/09/2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -640,7 +640,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://regional.kompas.com/read/2025/09/29/064636878/wali-kota-pastikan-belum-ada-temuan-siswa-keracunan-mbg-di-banda-aceh</t>
+          <t>https://nasional.kompas.com/read/2025/09/29/13044261/anggota-komisi-ix-kasus-keracunan-mbg-harus-menjadi-bahan-evaluasi</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BGN Buka Layanan Pengaduan MBG, Catat Nomor dan Cara Lapornya !MONEY29/09/2025</t>
+          <t>Dapur MBG di Gunungkidul Ditutup Sementara Imbas Keracunan, SPPG: Paling 1-3 HariREGIONAL29/09/2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://money.kompas.com/read/2025/09/29/060125326/bgn-buka-layanan-pengaduan-mbg-catat-nomor-dan-cara-lapornya</t>
+          <t>https://yogyakarta.kompas.com/read/2025/09/29/125618578/dapur-mbg-di-gunungkidul-ditutup-sementara-imbas-keracunan-sppg-paling-1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -679,7 +679,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Keracunan MBG, Pers, dan Hari Hak untuk TahuNEWS29/09/2025</t>
+          <t>Dugaan Keracunan MBG di Banyumas, Korban Bertambah Jadi 408 SiswaREGIONAL29/09/2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -694,7 +694,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://nasional.kompas.com/read/2025/09/29/06000011/keracunan-mbg-pers-dan-hari-hak-untuk-tahu</t>
+          <t>https://regional.kompas.com/read/2025/09/29/125310878/dugaan-keracunan-mbg-di-banyumas-korban-bertambah-jadi-408-siswa</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -706,7 +706,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Kronologi Pencabutan ID Pers Istana Milik Wartawan CNN Pasca Lempar Pertanyaan Soal MBG ke Presiden PrabowoPROV29/09/2025</t>
+          <t>Pemerintah Tutup Dapur MBG Bermasalah, Benarkah Banyak yang Tak Penuhi Standar Sanitasi?PROV29/09/2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -721,7 +721,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.kompas.com/jawa-tengah/read/2025/09/29/053000688/kronologi-pencabutan-id-pers-istana-milik-wartawan-cnn-pasca-lempar</t>
+          <t>https://www.kompas.com/sulawesi-selatan/read/2025/09/29/124500088/pemerintah-tutup-dapur-mbg-bermasalah-benarkah-banyak-yang-tak</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -733,7 +733,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Merasionalkan MBG, Membenahi BGNNEWS29/09/2025</t>
+          <t>SPPG Bangkalan Buat MoU Sekolah Ganti Ompreng Hilang dan Larang Publikasi MBG Basi, Cabdindik Minta RevisiREGIONAL29/09/2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -748,7 +748,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://nasional.kompas.com/read/2025/09/29/05223631/merasionalkan-mbg-membenahi-bgn</t>
+          <t>https://surabaya.kompas.com/read/2025/09/29/124258578/sppg-bangkalan-buat-mou-sekolah-ganti-ompreng-hilang-dan-larang-publikasi</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Zulhas soal Keracunan Massal MBG: Ini Bukan Sekadar AngkaMONEY29/09/2025</t>
+          <t>Prabowo Singgung Perusuh Demo Agustus: Ini Bukan Aktivis, "They Are Evil"NEWS29/09/2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -775,10 +775,766 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://money.kompas.com/read/2025/09/29/004600026/zulhas-soal-keracunan-massal-mbg--ini-bukan-sekadar-angka</t>
+          <t>https://nasional.kompas.com/read/2025/09/29/12421931/prabowo-singgung-perusuh-demo-agustus-ini-bukan-aktivis-they-are-evil</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
+        <is>
+          <t>prabowo</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Pemkot Palangka Raya Percepat Sertifikat Higiene Dapur MBG usai Instruksi MendagriREGIONAL29/09/2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://regional.kompas.com/read/2025/09/29/123007978/pemkot-palangka-raya-percepat-sertifikat-higiene-dapur-mbg-usai-instruksi</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>mbg</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Labkesda Jabar Ungkap Bakteri Pemicu Keracunan Massal Program MBG di Bandung BaratPROV29/09/2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://www.kompas.com/jawa-barat/read/2025/09/29/123000388/labkesda-jabar-ungkap-bakteri-pemicu-keracunan-massal-program-mbg-di</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>mbg</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Ribuan Siswa Keracunan MBG, BGN Perintahkan SPPG Masak Pakai Air GalonMONEY29/09/2025</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://money.kompas.com/read/2025/09/29/122439726/ribuan-siswa-keracunan-mbg-bgn-perintahkan-sppg-masak-pakai-air-galon</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>mbg</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Prabowo Ungkit Disindir Trump Usai Gebrak Meja di PBB: Saya Itu Jangan Dikasih PodiumNEWS29/09/2025</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://nasional.kompas.com/read/2025/09/29/12214011/prabowo-ungkit-disindir-trump-usai-gebrak-meja-di-pbb-saya-itu-jangan</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>prabowo</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Dinkes Kaltim Pastikan Program MBG Aman, Siapkan Prosedur Darurat Jika Terjadi KeracunanREGIONAL29/09/2025</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://regional.kompas.com/read/2025/09/29/122001178/dinkes-kaltim-pastikan-program-mbg-aman-siapkan-prosedur-darurat-jika</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>mbg</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Semua Dapur MBG Wajib Punya SLHS, Apa Itu?MONEY29/09/2025</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://money.kompas.com/read/2025/09/29/121629426/semua-dapur-mbg-wajib-punya-slhs-apa-itu</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>mbg</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Prabowo Vs Trump di PBB: Beda Sikap soal Krisis IklimLESTARI29/09/2025</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://lestari.kompas.com/read/2025/09/29/121107186/prabowo-vs-trump-di-pbb-beda-sikap-soal-krisis-iklim</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>prabowo</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Prabowo: Saya Enggak Dendam Sama Anies Dikasih Nilai 11NEWS29/09/2025</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://nasional.kompas.com/read/2025/09/29/12053921/prabowo-saya-enggak-dendam-sama-anies-dikasih-nilai-11</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>prabowo</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Singgung Penyimpangan Sistemik, Prabowo: Berapa Ratus Triliun Rupiah Uang Negara Hilang Tiap TahunNEWS29/09/2025</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://nasional.kompas.com/read/2025/09/29/12010721/singgung-penyimpangan-sistemik-prabowo-berapa-ratus-triliun-rupiah-uang</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>prabowo</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Prabowo Risau Keracunan MBG: Bersihkan Alat Dapur, Bunuh Semua BakteriNEWS29/09/2025</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://nasional.kompas.com/read/2025/09/29/11570291/prabowo-risau-keracunan-mbg-bersihkan-alat-dapur-bunuh-semua-bakteri</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>mbg, prabowo</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Forum Aksi Guru dan Orangtua Desak Penegakan Hukum Keracunan MBG di JabarREGIONAL29/09/2025</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://bandung.kompas.com/read/2025/09/29/115123278/forum-aksi-guru-dan-orangtua-desak-penegakan-hukum-keracunan-mbg-di-jabar</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>mbg</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>27 Siswa SD di Palangka Raya Keracunan MBG, Saus Diduga KedaluwarsaREGIONAL29/09/2025</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://regional.kompas.com/read/2025/09/29/115004678/27-siswa-sd-di-palangka-raya-keracunan-mbg-saus-diduga-kedaluwarsa</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>mbg</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Wali Kota Batu Minta Pelajar Berani Tolak Menu MBG Tak Layak KonsumsiREGIONAL29/09/2025</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://surabaya.kompas.com/read/2025/09/29/114901578/wali-kota-batu-minta-pelajar-berani-tolak-menu-mbg-tak-layak-konsumsi</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>mbg</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Prabowo Puji Kinerja Yassierli di Munas PKS: Berprestasi, Walau Rambut Putihnya Tambah BanyakNEWS29/09/2025</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://nasional.kompas.com/read/2025/09/29/11454681/prabowo-puji-kinerja-yassierli-di-munas-pks-berprestasi-walau-rambut</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>prabowo</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Prabowo Kaget dengan Korupsi di Indonesia: Dalam Keadaan yang Sangat MemperihatinkanNEWS29/09/2025</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://nasional.kompas.com/read/2025/09/29/11400271/prabowo-kaget-dengan-korupsi-di-indonesia-dalam-keadaan-yang-sangat</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>prabowo</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Prabowo Sebut Pemerintah Tutup 1.000 Tambang Ilegal di Babel, Selamatkan Rp 22 TriliunNEWS29/09/2025</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://nasional.kompas.com/read/2025/09/29/11394051/prabowo-sebut-pemerintah-tutup-1000-tambang-ilegal-di-babel-selamatkan-rp-22</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>prabowo</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Prabowo Kagum PKS Sodorkan Profesor ITB untuk Jadi Menteri, Bukan Kader PolitikNEWS29/09/2025</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://nasional.kompas.com/read/2025/09/29/11164921/prabowo-kagum-pks-sodorkan-profesor-itb-untuk-jadi-menteri-bukan-kader</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>prabowo</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Legislator Usul Jumlah Porsi yang Disiapkan Dapur MBG Dibatasi Buntut Kasus KeracunanNEWS29/09/2025</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://nasional.kompas.com/read/2025/09/29/11162561/legislator-usul-jumlah-porsi-yang-disiapkan-dapur-mbg-dibatasi-buntut-kasus</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>mbg</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Banyak Siswa Keracunan, Program MBG Akan Dihentikan?EDUKASI29/09/2025</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://www.kompas.com/edu/read/2025/09/29/110635871/banyak-siswa-keracunan-program-mbg-akan-dihentikan</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>mbg</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Prabowo Sapa AHY sebagai Penerus SBY: Kok Saya Enggak Disingkat PSD Ya?NEWS29/09/2025</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://nasional.kompas.com/read/2025/09/29/11004281/prabowo-sapa-ahy-sebagai-penerus-sby-kok-saya-enggak-disingkat-psd-ya</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>prabowo</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Prabowo Hadiri Puncak Munas VI PKS di Hotel Sultan, Didampingi MensesnegNEWS29/09/2025</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://nasional.kompas.com/read/2025/09/29/10503891/prabowo-hadiri-puncak-munas-vi-pks-di-hotel-sultan-didampingi-mensesneg</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>prabowo</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Menkes: Proses Percepatan SLHS Dapur MBG Harus Selesai Dalam Satu BulanNEWS29/09/2025</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://nasional.kompas.com/read/2025/09/29/10445081/menkes-proses-percepatan-slhs-dapur-mbg-harus-selesai-dalam-satu-bulan</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>mbg</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Menu MBG di Pamekasan Didistribusikan Setelah 12 Jam DimasakREGIONAL29/09/2025</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://surabaya.kompas.com/read/2025/09/29/102337378/menu-mbg-di-pamekasan-didistribusikan-setelah-12-jam-dimasak</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>mbg</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Dapur MBG di Semin Gunungkidul Ditutup Sementara usai Kasus KeracunanREGIONAL29/09/2025</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://regional.kompas.com/read/2025/09/29/101939078/dapur-mbg-di-semin-gunungkidul-ditutup-sementara-usai-kasus-keracunan</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>mbg</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>KLB Kasus Keracunan MBG, BGN: Banyak Dialami SPPG Masih Baru BeroperasiNEWS29/09/2025</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://nasional.kompas.com/read/2025/09/29/10034761/klb-kasus-keracunan-mbg-bgn-banyak-dialami-sppg-masih-baru-beroperasi</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>mbg</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Belum Ada Laporan Kasus Keracunan MBG, Pemkot Bekasi Tetap Evaluasi SPPGNEWS29/09/2025</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://megapolitan.kompas.com/read/2025/09/29/09275851/belum-ada-laporan-kasus-keracunan-mbg-pemkot-bekasi-tetap-evaluasi-sppg</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>mbg</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Usai KLB MBG, Pemerintah Siapkan Ahli Gizi hingga Perbaiki Tata KelolaNEWS29/09/2025</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://nasional.kompas.com/read/2025/09/29/08323071/usai-klb-mbg-pemerintah-siapkan-ahli-gizi-hingga-perbaiki-tata-kelola</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>mbg</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Disdik Kalteng Ajak Warga Awasi Program MBG lewat Aplikasi, Bagaimana Caranya?REGIONAL29/09/2025</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://regional.kompas.com/read/2025/09/29/083105778/disdik-kalteng-ajak-warga-awasi-program-mbg-lewat-aplikasi-bagaimana</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
         <is>
           <t>mbg</t>
         </is>

--- a/daftar_berita/hasil_kompas.xlsx
+++ b/daftar_berita/hasil_kompas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,12 +463,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Batal Naikkan Cukai Rokok, Menkeu Purbaya Banjir Kiriman Papan Bunga Bentuk ProtesMONEY30/09/2025</t>
+          <t>Purbaya Cap Pertamina Malas-malasan Bangun KilangMONEY01/10/2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -478,24 +478,24 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://money.kompas.com/read/2025/09/30/132538926/batal-naikkan-cukai-rokok-menkeu-purbaya-banjir-kiriman-papan-bunga-bentuk</t>
+          <t>https://money.kompas.com/read/2025/10/01/080353726/purbaya-cap-pertamina-malas-malasan-bangun-kilang</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>purbaya, cukai</t>
+          <t>purbaya</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Taliban Matikan Akses Internet Afghanistan, Sektor Perbankan hingga Bea Cukai LumpuhGLOBAL30/09/2025</t>
+          <t>Kritik Menkeu Purbaya, Pertamina Gagal Realisasikan Kilang Baru Setelah 7 TahunPROV01/10/2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -505,66 +505,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.kompas.com/global/read/2025/09/30/110411770/taliban-matikan-akses-internet-afghanistan-sektor-perbankan-hingga-bea</t>
+          <t>https://www.kompas.com/sumatera-selatan/read/2025/10/01/051500288/kritik-menkeu-purbaya-pertamina-gagal-realisasikan-kilang-baru</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>cukai</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Tarif Cukai Rokok 2026 Tak Naik, Pemerintah Selamatkan Industri Tembakau dari TekananMONEY30/09/2025</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2025-09-30</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://money.kompas.com/read/2025/09/30/103000726/tarif-cukai-rokok-2026-tak-naik-pemerintah-selamatkan-industri-tembakau-dari</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>cukai</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Kemenperin Sambut Baik Menkeu Tak Naikkan Cukai Rokok 2026MONEY29/09/2025</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2025-09-29</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://money.kompas.com/read/2025/09/29/201100426/kemenperin-sambut-baik-menkeu-tak-naikkan-cukai-rokok-2026</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>cukai</t>
+          <t>purbaya</t>
         </is>
       </c>
     </row>
